--- a/Description.xlsx
+++ b/Description.xlsx
@@ -141,9 +141,6 @@
     <t xml:space="preserve">NAME OF JOB </t>
   </si>
   <si>
-    <t xml:space="preserve">DISTANCE TO WORK </t>
-  </si>
-  <si>
     <t>CUSTOMERS USE THEIR CAR OR USE IN PUBLIC</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>IF THE CRASHED =&gt; HOW MUCH AMOUNT TO PAY FOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIME TO WORK </t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -741,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Description.xlsx
+++ b/Description.xlsx
@@ -141,9 +141,6 @@
     <t xml:space="preserve">NAME OF JOB </t>
   </si>
   <si>
-    <t>CUSTOMERS USE THEIR CAR OR USE IN PUBLIC</t>
-  </si>
-  <si>
     <t>THE VALUE OF CARS</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t xml:space="preserve">TIME TO WORK </t>
+  </si>
+  <si>
+    <t>THIS IS THE PRIVATE OR COMMERCIAL VEHICLE USED BY CUSTOMER</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -669,7 +669,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -677,7 +677,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -701,7 +701,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -709,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -717,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -741,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Description.xlsx
+++ b/Description.xlsx
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Description.xlsx
+++ b/Description.xlsx
@@ -159,9 +159,6 @@
     <t>TOTAL NUMBER OF CLAIMS</t>
   </si>
   <si>
-    <t>LICENSE REVOKED IN 7 YEARS</t>
-  </si>
-  <si>
     <t>MOTOR VEHICLE RECORD POINTS =&gt; GET MORE TRAFFIC TICKETS (GIẤY XỬ PHẠT)</t>
   </si>
   <si>
@@ -174,13 +171,16 @@
     <t>HOME/WORK AREA</t>
   </si>
   <si>
-    <t>IF THE CRASHED =&gt; HOW MUCH AMOUNT TO PAY FOR</t>
-  </si>
-  <si>
     <t xml:space="preserve">TIME TO WORK </t>
   </si>
   <si>
     <t>THIS IS THE PRIVATE OR COMMERCIAL VEHICLE USED BY CUSTOMER</t>
+  </si>
+  <si>
+    <t>USED CLAIM PAYMENT</t>
+  </si>
+  <si>
+    <t>LICENSE REVOKED IN LAST 7 YEARS (1 MEANS CUSTOMER HAS AT LEAST REVOKE 1 TIME)</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -661,7 +661,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -712,12 +712,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="33" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="33" x14ac:dyDescent="0.35">
@@ -725,7 +725,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -741,7 +741,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -749,7 +749,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.35">
@@ -757,7 +757,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
